--- a/Wykresy do sprawozdania.xlsx
+++ b/Wykresy do sprawozdania.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Moje\Studia\Sem4\Struktury_Danych\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C935E-ABCD-466C-AC60-CD73B8E5B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6903FE0-EA68-4805-93DA-FEA5CC0183F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFDFB3CD-CE13-4908-B70C-0CCE18FA1BD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista 1kier" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista 2kier" sheetId="2" r:id="rId2"/>
+    <sheet name="Kolejka" sheetId="3" r:id="rId3"/>
+    <sheet name="AVL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Czas:</t>
   </si>
@@ -52,6 +55,30 @@
   </si>
   <si>
     <t>tabela dla floatów</t>
+  </si>
+  <si>
+    <t>plik z danymi</t>
+  </si>
+  <si>
+    <t>wczytanie z pliku</t>
+  </si>
+  <si>
+    <t>czas wczytania</t>
+  </si>
+  <si>
+    <t>dodanie elementu</t>
+  </si>
+  <si>
+    <t>usuniecię elemntu</t>
+  </si>
+  <si>
+    <t>nstępnik</t>
+  </si>
+  <si>
+    <t>poprzednik</t>
+  </si>
+  <si>
+    <t>find()</t>
   </si>
 </sst>
 </file>
@@ -113,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -123,15 +150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -269,7 +295,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$9:$C$14</c:f>
+              <c:f>'Lista 1kier'!$C$9:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -296,7 +322,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$9:$D$14</c:f>
+              <c:f>'Lista 1kier'!$D$9:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -360,7 +386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$48:$H$48</c:f>
+              <c:f>'Lista 1kier'!$C$48:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -387,7 +413,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$49:$H$49</c:f>
+              <c:f>'Lista 1kier'!$C$49:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -868,7 +894,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$19:$C$27</c:f>
+              <c:f>'Lista 1kier'!$C$19:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -904,7 +930,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$19:$D$27</c:f>
+              <c:f>'Lista 1kier'!$D$19:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -975,7 +1001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$19:$C$27</c:f>
+              <c:f>'Lista 1kier'!$C$19:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1011,7 +1037,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$E$19:$E$27</c:f>
+              <c:f>'Lista 1kier'!$E$19:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1080,7 +1106,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$48:$K$48</c:f>
+              <c:f>'Lista 1kier'!$C$48:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1116,7 +1142,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$50:$K$50</c:f>
+              <c:f>'Lista 1kier'!$C$50:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1187,7 +1213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$48:$K$48</c:f>
+              <c:f>'Lista 1kier'!$C$48:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1223,7 +1249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$51:$K$51</c:f>
+              <c:f>'Lista 1kier'!$C$51:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1233,25 +1259,25 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00000">
                   <c:v>1.0008E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00000">
                   <c:v>9.9740000000000007E-4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00000">
                   <c:v>9.951999999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00000">
                   <c:v>1.0294E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00000">
                   <c:v>9.8679999999999992E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00000">
                   <c:v>2.0221000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00000">
                   <c:v>1.9878999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -3077,39 +3103,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B033A11-62A7-4EFB-ABFA-CECCD568AA1A}">
-  <dimension ref="B1:K51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>33.253599999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +3211,7 @@
         <v>3.0216000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3207,12 +3234,15 @@
         <v>1.0407000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9">
         <v>10000</v>
       </c>
@@ -3220,7 +3250,10 @@
         <v>0.19950799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10">
         <v>30000</v>
       </c>
@@ -3228,7 +3261,10 @@
         <v>2.0924499999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
       <c r="C11">
         <v>50000</v>
       </c>
@@ -3236,7 +3272,10 @@
         <v>5.8280599999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="C12">
         <v>70000</v>
       </c>
@@ -3244,7 +3283,10 @@
         <v>11.2166</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
       <c r="C13">
         <v>90000</v>
       </c>
@@ -3252,12 +3294,25 @@
         <v>18.667400000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="C14">
         <v>120000</v>
       </c>
       <c r="D14">
         <v>33.253599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
@@ -3366,14 +3421,14 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2" t="s">
         <v>2</v>
       </c>
@@ -3406,7 +3461,7 @@
       <c r="I48">
         <v>140000</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48">
         <v>160000</v>
       </c>
       <c r="K48">
@@ -3417,7 +3472,7 @@
       <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>0.206485</v>
       </c>
       <c r="D49" s="3">
@@ -3426,7 +3481,7 @@
       <c r="E49" s="3">
         <v>5.5702400000000001</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <v>11.116300000000001</v>
       </c>
       <c r="G49" s="3">
@@ -3443,28 +3498,28 @@
       <c r="C50" s="3">
         <v>0</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>1.0208999999999999E-3</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>1.0283E-3</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>2.0241E-3</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>5.0277000000000004E-3</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <v>6.0134000000000003E-3</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <v>4.9861000000000003E-3</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <v>7.0382999999999999E-3</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="7">
         <v>7.0111000000000001E-3</v>
       </c>
     </row>
@@ -3478,25 +3533,25 @@
       <c r="D51" s="3">
         <v>0</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>1.0008E-3</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>9.9740000000000007E-4</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <v>9.951999999999999E-4</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="8">
         <v>1.0294E-3</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <v>9.8679999999999992E-4</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <v>2.0221000000000002E-3</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="7">
         <v>1.9878999999999999E-3</v>
       </c>
     </row>
@@ -3509,4 +3564,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4470A7D3-4570-4BAE-AB92-B4E38AFF0AC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B491E46-2FE3-4134-A7AD-5230A4B31D78}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0287141B-23A8-448D-9B43-22422D32E67A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>